--- a/data/Unicrypt/Unicrypt20170101.xlsx
+++ b/data/Unicrypt/Unicrypt20170101.xlsx
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14">
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1204,7 +1204,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44">
@@ -1330,7 +1330,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1654,7 +1654,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1924,7 +1924,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2248,7 +2248,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="102">
@@ -2410,7 +2410,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="111">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="113">
@@ -2788,7 +2788,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="132">
@@ -2860,7 +2860,7 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
     </row>
     <row r="136">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -3076,7 +3076,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="148">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="154">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="155">
@@ -3220,7 +3220,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="156">
@@ -3256,7 +3256,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="158">
@@ -3634,7 +3634,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
